--- a/demo.xlsx
+++ b/demo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t xml:space="preserve">pilota</t>
   </si>
@@ -34,19 +34,31 @@
     <t xml:space="preserve">like</t>
   </si>
   <si>
+    <t xml:space="preserve">csapat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hamilton</t>
   </si>
   <si>
     <t xml:space="preserve">false</t>
   </si>
   <si>
+    <t xml:space="preserve">merci</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verstappen</t>
   </si>
   <si>
     <t xml:space="preserve">true</t>
   </si>
   <si>
+    <t xml:space="preserve">redbull</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leclerc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrari</t>
   </si>
   <si>
     <t xml:space="preserve">Sainz</t>
@@ -140,8 +152,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -163,96 +179,114 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C5" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="C6" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
